--- a/profile_data/lightgbm/ED_mc_bgm.xlsx
+++ b/profile_data/lightgbm/ED_mc_bgm.xlsx
@@ -351,10 +351,10 @@
   <dimension ref="A1:P104"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A97" activeCellId="1" sqref="98:105 A97"/>
+      <selection pane="topLeft" activeCell="A97" activeCellId="0" sqref="A97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.83"/>
@@ -5581,10 +5581,10 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="1" sqref="98:105 J11"/>
+      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="n">
@@ -5727,13 +5727,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P105"/>
+  <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A98" activeCellId="0" sqref="98:105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1015" style="0" width="10.5"/>
   </cols>
@@ -5790,202 +5790,202 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="H2" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="I2" s="5" t="n">
-        <v>63</v>
-      </c>
       <c r="J2" s="5" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="K2" s="5" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="L2" s="5" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M2" s="5" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N2" s="5" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="O2" s="5" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="P2" s="5" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J3" s="5" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K3" s="5" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L3" s="5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M3" s="5" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="N3" s="5" t="n">
-        <v>28</v>
+        <v>-5</v>
       </c>
       <c r="O3" s="5" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="P3" s="5" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>-5</v>
+        <v>37</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C5" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="H5" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>35</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>43</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>37</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>35</v>
-      </c>
-      <c r="H5" s="5" t="n">
+      <c r="I5" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="I5" s="5" t="n">
-        <v>47</v>
-      </c>
-      <c r="J5" s="5" t="n">
-        <v>30</v>
-      </c>
       <c r="K5" s="5" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M5" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="O5" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="N5" s="5" t="n">
-        <v>37</v>
-      </c>
-      <c r="O5" s="5" t="n">
-        <v>35</v>
-      </c>
       <c r="P5" s="5" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5993,199 +5993,199 @@
         <v>39</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="O6" s="5" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="P6" s="5" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="K7" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="L7" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="D7" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>42</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>18</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>18</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>31</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>39</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>28</v>
-      </c>
       <c r="M7" s="5" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O7" s="5" t="n">
         <v>13</v>
       </c>
       <c r="P7" s="5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H8" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="K8" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="I8" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="J8" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>18</v>
-      </c>
       <c r="L8" s="5" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="O8" s="5" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P8" s="5" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="O9" s="5" t="n">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="P9" s="5" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7740,52 +7740,52 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="H41" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="I41" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="I41" s="5" t="n">
-        <v>63</v>
-      </c>
       <c r="J41" s="5" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N41" s="5" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="O41" s="5" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="P41" s="5" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10938,56 +10938,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="5" t="n">
-        <v>47</v>
-      </c>
-      <c r="B105" s="5" t="n">
-        <v>26</v>
-      </c>
-      <c r="C105" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="D105" s="5" t="n">
-        <v>33</v>
-      </c>
-      <c r="E105" s="5" t="n">
-        <v>41</v>
-      </c>
-      <c r="F105" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="G105" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="H105" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="I105" s="5" t="n">
-        <v>43</v>
-      </c>
-      <c r="J105" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="K105" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="L105" s="5" t="n">
-        <v>29</v>
-      </c>
-      <c r="M105" s="5" t="n">
-        <v>47</v>
-      </c>
-      <c r="N105" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="O105" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="P105" s="5" t="n">
-        <v>35</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -11007,10 +10958,10 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="1" sqref="98:105 D13"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8046875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="18.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="17.84"/>
@@ -11223,10 +11174,10 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="1" sqref="98:105 E17"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.53"/>
@@ -11435,10 +11386,10 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="1" sqref="98:105 C20"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.61"/>
@@ -11629,10 +11580,10 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="1" sqref="98:105 C12"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.77"/>
@@ -11849,10 +11800,10 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="1" sqref="98:105 H8"/>
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="n">
@@ -11999,10 +11950,10 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="1" sqref="98:105 G11"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="n">
@@ -12146,10 +12097,10 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="1" sqref="98:105 G27"/>
+      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="n">
